--- a/StructureDefinition-ext-R5-ConceptMap.group.xlsx
+++ b/StructureDefinition-ext-R5-ConceptMap.group.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4851" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4851" uniqueCount="412">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -406,7 +406,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-CodeSystem|0.0.1-snapshot-3|CodeSystem|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-CodeSystem|CodeSystem)
 </t>
   </si>
   <si>
@@ -592,7 +592,7 @@
     <t>Extension.extension:element.extension:valueSet.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ValueSet|0.0.1-snapshot-3|ValueSet|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ValueSet|ValueSet)
 </t>
   </si>
   <si>
@@ -785,15 +785,6 @@
     <t>Extension.extension:element.extension:target.extension:relationship.value[x]</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The relationship between concepts.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-concept-map-relationship-for-R4-concept-map-equivalence</t>
-  </si>
-  <si>
     <t>Extension.extension:element.extension:target.extension:comment</t>
   </si>
   <si>
@@ -807,7 +798,6 @@
   </si>
   <si>
     <t>Element `ConceptMap.group.element.target.comment` is part of an existing definition because parent element `ConceptMap.group.element.target` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.group.element.target.comment`: `http://hl7.org/fhir/StructureDefinition/conceptmap-notarget-comment`.
 Element `ConceptMap.group.element.target.comment` has is mapped to FHIR R4 element `ConceptMap.group.element.target.comment`, but has no comparisons.</t>
   </si>
   <si>
@@ -1173,12 +1163,6 @@
     <t>Extension.extension:unmapped.extension:mode.value[x]</t>
   </si>
   <si>
-    <t>Defines which action to take if there is no match in the group.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-conceptmap-unmapped-mode-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:unmapped.extension:code</t>
   </si>
   <si>
@@ -1283,9 +1267,6 @@
     <t>Extension.extension:unmapped.extension:relationship.value[x]</t>
   </si>
   <si>
-    <t>The default relationship value to apply between the source and target concepts when no concept mapping is specified.</t>
-  </si>
-  <si>
     <t>Extension.extension:unmapped.extension:otherMap</t>
   </si>
   <si>
@@ -1317,7 +1298,7 @@
     <t>Extension.extension:unmapped.extension:otherMap.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ConceptMap|0.0.1-snapshot-3|ConceptMap|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ConceptMap|ConceptMap)
 </t>
   </si>
   <si>
@@ -1677,8 +1658,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="96.19140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="85.578125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -7963,13 +7944,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -8007,13 +7988,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>154</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>77</v>
@@ -8038,14 +8019,14 @@
         <v>93</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8114,7 +8095,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>208</v>
@@ -8217,7 +8198,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>210</v>
@@ -8322,7 +8303,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>212</v>
@@ -8365,7 +8346,7 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>77</v>
@@ -8427,7 +8408,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>215</v>
@@ -8456,10 +8437,10 @@
         <v>87</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8530,13 +8511,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>154</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>77</v>
@@ -8561,14 +8542,14 @@
         <v>93</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -8637,7 +8618,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>208</v>
@@ -8740,7 +8721,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>210</v>
@@ -8751,7 +8732,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>79</v>
@@ -8843,7 +8824,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>210</v>
@@ -8874,14 +8855,14 @@
         <v>93</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -8950,10 +8931,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9053,10 +9034,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9158,10 +9139,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9201,7 +9182,7 @@
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>77</v>
@@ -9263,10 +9244,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9292,10 +9273,10 @@
         <v>160</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9366,13 +9347,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>210</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>77</v>
@@ -9397,14 +9378,14 @@
         <v>93</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>77</v>
@@ -9473,10 +9454,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9576,10 +9557,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9681,10 +9662,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9724,7 +9705,7 @@
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="S77" t="s" s="2">
         <v>77</v>
@@ -9786,10 +9767,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -9812,13 +9793,13 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -9889,7 +9870,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>212</v>
@@ -9932,7 +9913,7 @@
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>77</v>
@@ -9994,7 +9975,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>215</v>
@@ -10020,13 +10001,13 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10097,13 +10078,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>154</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
@@ -10128,14 +10109,14 @@
         <v>93</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -10204,7 +10185,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>208</v>
@@ -10307,7 +10288,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>210</v>
@@ -10410,13 +10391,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>210</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>77</v>
@@ -10441,14 +10422,14 @@
         <v>93</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>77</v>
@@ -10517,10 +10498,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10620,10 +10601,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10725,10 +10706,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10768,7 +10749,7 @@
       </c>
       <c r="Q87" s="2"/>
       <c r="R87" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>77</v>
@@ -10830,10 +10811,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -10859,10 +10840,10 @@
         <v>160</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -10933,13 +10914,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>210</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>77</v>
@@ -10964,16 +10945,16 @@
         <v>93</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="O89" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>77</v>
@@ -11042,10 +11023,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11145,10 +11126,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11250,10 +11231,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11293,7 +11274,7 @@
       </c>
       <c r="Q92" s="2"/>
       <c r="R92" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="S92" t="s" s="2">
         <v>77</v>
@@ -11355,10 +11336,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11381,16 +11362,16 @@
         <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -11460,7 +11441,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>210</v>
@@ -11491,14 +11472,14 @@
         <v>93</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>77</v>
@@ -11567,10 +11548,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11670,10 +11651,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11775,10 +11756,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11818,7 +11799,7 @@
       </c>
       <c r="Q97" s="2"/>
       <c r="R97" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="S97" t="s" s="2">
         <v>77</v>
@@ -11880,10 +11861,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -11909,10 +11890,10 @@
         <v>183</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -11983,7 +11964,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>212</v>
@@ -12026,7 +12007,7 @@
       </c>
       <c r="Q99" s="2"/>
       <c r="R99" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>77</v>
@@ -12088,7 +12069,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>215</v>
@@ -12114,13 +12095,13 @@
         <v>77</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -12191,13 +12172,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>154</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>77</v>
@@ -12222,14 +12203,14 @@
         <v>93</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>77</v>
@@ -12298,7 +12279,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>208</v>
@@ -12401,7 +12382,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>210</v>
@@ -12506,7 +12487,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>212</v>
@@ -12549,7 +12530,7 @@
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>77</v>
@@ -12611,7 +12592,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>215</v>
@@ -12637,13 +12618,13 @@
         <v>77</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -12714,7 +12695,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>156</v>
@@ -12757,7 +12738,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -12819,7 +12800,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>159</v>
@@ -12845,13 +12826,13 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -12922,7 +12903,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>114</v>
@@ -12965,7 +12946,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -13027,7 +13008,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>123</v>
@@ -13053,13 +13034,13 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13130,13 +13111,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>77</v>
@@ -13161,16 +13142,16 @@
         <v>93</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="O110" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>77</v>
@@ -13239,7 +13220,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>106</v>
@@ -13342,7 +13323,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>108</v>
@@ -13445,13 +13426,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -13476,14 +13457,14 @@
         <v>93</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -13552,7 +13533,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>152</v>
@@ -13655,7 +13636,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>154</v>
@@ -13760,7 +13741,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>156</v>
@@ -13803,7 +13784,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -13865,7 +13846,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>159</v>
@@ -13894,10 +13875,10 @@
         <v>160</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -13924,13 +13905,13 @@
         <v>77</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>77</v>
@@ -13968,7 +13949,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>108</v>
@@ -13999,14 +13980,14 @@
         <v>93</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14075,7 +14056,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>152</v>
@@ -14178,7 +14159,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>154</v>
@@ -14283,7 +14264,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>156</v>
@@ -14326,7 +14307,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -14388,7 +14369,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>159</v>
@@ -14417,10 +14398,10 @@
         <v>160</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -14491,7 +14472,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>108</v>
@@ -14531,7 +14512,7 @@
         <v>165</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -14600,7 +14581,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>152</v>
@@ -14703,7 +14684,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>154</v>
@@ -14808,7 +14789,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>156</v>
@@ -14851,7 +14832,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -14913,7 +14894,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>159</v>
@@ -15018,7 +14999,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>108</v>
@@ -15049,14 +15030,14 @@
         <v>93</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -15125,7 +15106,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>152</v>
@@ -15228,7 +15209,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>154</v>
@@ -15333,7 +15314,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>156</v>
@@ -15376,7 +15357,7 @@
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>77</v>
@@ -15438,7 +15419,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>159</v>
@@ -15467,10 +15448,10 @@
         <v>183</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -15541,7 +15522,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>108</v>
@@ -15575,13 +15556,13 @@
         <v>235</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="N133" t="s" s="2">
         <v>237</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>77</v>
@@ -15650,7 +15631,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>152</v>
@@ -15753,7 +15734,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>154</v>
@@ -15858,7 +15839,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>156</v>
@@ -15901,7 +15882,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -15963,7 +15944,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>159</v>
@@ -15995,7 +15976,7 @@
         <v>235</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="N137" t="s" s="2">
         <v>237</v>
@@ -16024,13 +16005,13 @@
         <v>77</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="Z137" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>77</v>
@@ -16068,13 +16049,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -16099,14 +16080,14 @@
         <v>93</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>77</v>
@@ -16175,7 +16156,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>152</v>
@@ -16278,7 +16259,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>154</v>
@@ -16383,7 +16364,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>156</v>
@@ -16426,7 +16407,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -16488,7 +16469,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>159</v>
@@ -16514,13 +16495,13 @@
         <v>77</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -16591,7 +16572,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>114</v>
@@ -16634,7 +16615,7 @@
       </c>
       <c r="Q143" s="2"/>
       <c r="R143" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="S143" t="s" s="2">
         <v>77</v>
@@ -16696,7 +16677,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>123</v>
@@ -16722,13 +16703,13 @@
         <v>77</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -16930,13 +16911,13 @@
         <v>77</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
